--- a/Caso2/docs/graficas-y-calculos.xlsx
+++ b/Caso2/docs/graficas-y-calculos.xlsx
@@ -5,10 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MD5" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="SHA-256" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="SHA-384" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="SHA-512" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
   <si>
     <t xml:space="preserve">Largo cadena</t>
   </si>
@@ -49,7 +52,16 @@
     <t xml:space="preserve">A</t>
   </si>
   <si>
-    <t xml:space="preserve">Se demoraria aprox 1000 años para una cadena de 16 caracteres con MD5</t>
+    <t xml:space="preserve">Se demoraria aprox 1070 años para una cadena de 16 caracteres con MD5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se demoraria aprox 24500 años para una cadena de 16 caracteres con SHA-256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se demoraria aprox 3140 años para una cadena de 16 caracteres con SHA-384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se demoraria aprox 24230 años para una cadena de 16 caracteres con SHA-512</t>
   </si>
 </sst>
 </file>
@@ -59,11 +71,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -79,6 +92,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,7 +146,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -204,7 +222,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -220,6 +238,271 @@
           <c:tx>
             <c:strRef>
               <c:f>MD5!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tiempo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MD5!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MD5!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2508</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30846</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>741722</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>752099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="78643725"/>
+        <c:axId val="65322830"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="78643725"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65322830"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="65322830"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="78643725"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SHA-256'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -286,7 +569,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>MD5!$A$2:$A$8</c:f>
+              <c:f>'SHA-256'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -316,41 +599,41 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MD5!$B$2:$B$8</c:f>
+              <c:f>'SHA-256'!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>325</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2508</c:v>
+                  <c:v>2513</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30846</c:v>
+                  <c:v>33346</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>741722</c:v>
+                  <c:v>857006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>752099</c:v>
+                  <c:v>834179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="5996596"/>
-        <c:axId val="76288731"/>
+        <c:axId val="69599496"/>
+        <c:axId val="70932016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="5996596"/>
+        <c:axId val="69599496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -378,12 +661,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76288731"/>
+        <c:crossAx val="70932016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76288731"/>
+        <c:axId val="70932016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -420,7 +703,513 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5996596"/>
+        <c:crossAx val="69599496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'SHA-384'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'SHA-384'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2591</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45822</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1069250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1123070</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="62561542"/>
+        <c:axId val="88105927"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="62561542"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="88105927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="88105927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="62561542"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'SHA-512'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'SHA-512'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46440</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1137164</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1098583</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="77350903"/>
+        <c:axId val="26164136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="77350903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="26164136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="26164136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="es-CO" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="77350903"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -479,9 +1268,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>168840</xdr:colOff>
+      <xdr:colOff>168480</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -489,7 +1278,112 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2624760" y="0"/>
+        <a:off x="2627280" y="0"/>
+        <a:ext cx="5767920" cy="3239280"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>79200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2535120" y="0"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>18720</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>88560</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2544480" y="0"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>79200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2535120" y="0"/>
         <a:ext cx="5759640" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
@@ -510,11 +1404,11 @@
   </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.76"/>
   </cols>
@@ -766,4 +1660,799 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.76"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <f aca="false">0.535271304628462*EXP(2.18161422674434*A2)</f>
+        <v>4.74282370919286</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <f aca="false">0.535271304628462*EXP(2.18161422674434*A3)</f>
+        <v>42.0242530133304</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>480</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <f aca="false">0.535271304628462*EXP(2.18161422674434*A4)</f>
+        <v>372.360001048606</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>2513</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <f aca="false">0.535271304628462*EXP(2.18161422674434*A5)</f>
+        <v>3299.33218175078</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>33346</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <f aca="false">0.535271304628462*EXP(2.18161422674434*A6)</f>
+        <v>29234.0552553479</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>857006</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <f aca="false">0.535271304628462*EXP(2.18161422674434*A7)</f>
+        <v>259031.203769008</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>834179</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <f aca="false">0.535271304628462*EXP(2.18161422674434*A8)</f>
+        <v>2295171.29730906</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <f aca="false">0.535271304628462*EXP(2.18161422674434*A9)</f>
+        <v>20336589.5974793</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <f aca="false">0.535271304628462*EXP(2.18161422674434*A10)</f>
+        <v>180194339.717125</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <f aca="false">0.535271304628462*EXP(2.18161422674434*A11)</f>
+        <v>1596629558.28716</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <f aca="false">0.535271304628462*EXP(2.18161422674434*A12)</f>
+        <v>14147092247.1711</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <f aca="false">0.535271304628462*EXP(2.18161422674434*A13)</f>
+        <v>125351693516.607</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <f aca="false">0.535271304628462*EXP(2.18161422674434*A14)</f>
+        <v>1110690931602.82</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <f aca="false">0.535271304628462*EXP(2.18161422674434*A15)</f>
+        <v>9841385552412.14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <f aca="false">0.535271304628462*EXP(2.18161422674434*A16)</f>
+        <v>87200558531130.1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <f aca="false">0.535271304628462*EXP(2.18161422674434*A17)</f>
+        <v>772649071377684</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <f aca="false">C17/1000</f>
+        <v>772649071377.684</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="n">
+        <f aca="false">B20/60</f>
+        <v>12877484522.9614</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="n">
+        <f aca="false">B21/60</f>
+        <v>214624742.049357</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="n">
+        <f aca="false">B22/24</f>
+        <v>8942697.58538986</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="n">
+        <f aca="false">B23/365</f>
+        <v>24500.5413298352</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A27:F27"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.76"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <f aca="false">2.03538558314349*EXP(1.96973694430002*A2)</f>
+        <v>14.5912527286773</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <f aca="false">2.03538558314349*EXP(1.96973694430002*A3)</f>
+        <v>104.601633201764</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>460</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <f aca="false">2.03538558314349*EXP(1.96973694430002*A4)</f>
+        <v>749.867189057193</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>2591</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <f aca="false">2.03538558314349*EXP(1.96973694430002*A5)</f>
+        <v>5375.64074300757</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>45822</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <f aca="false">2.03538558314349*EXP(1.96973694430002*A6)</f>
+        <v>38536.842016272</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1069250</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <f aca="false">2.03538558314349*EXP(1.96973694430002*A7)</f>
+        <v>276262.544984773</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1123070</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <f aca="false">2.03538558314349*EXP(1.96973694430002*A8)</f>
+        <v>1980468.29393123</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <f aca="false">2.03538558314349*EXP(1.96973694430002*A9)</f>
+        <v>14197562.190282</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <f aca="false">2.03538558314349*EXP(1.96973694430002*A10)</f>
+        <v>101779348.230214</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <f aca="false">2.03538558314349*EXP(1.96973694430002*A11)</f>
+        <v>729634819.508502</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <f aca="false">2.03538558314349*EXP(1.96973694430002*A12)</f>
+        <v>5230599125.42424</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <f aca="false">2.03538558314349*EXP(1.96973694430002*A13)</f>
+        <v>37497069053.4183</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <f aca="false">2.03538558314349*EXP(1.96973694430002*A14)</f>
+        <v>268808630499.433</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <f aca="false">2.03538558314349*EXP(1.96973694430002*A15)</f>
+        <v>1927032742960.31</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <f aca="false">2.03538558314349*EXP(1.96973694430002*A16)</f>
+        <v>13814493922839.2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <f aca="false">2.03538558314349*EXP(1.96973694430002*A17)</f>
+        <v>99033212093216.3</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <f aca="false">C17/1000</f>
+        <v>99033212093.2163</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="n">
+        <f aca="false">B20/60</f>
+        <v>1650553534.88694</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="n">
+        <f aca="false">B21/60</f>
+        <v>27509225.581449</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="n">
+        <f aca="false">B22/24</f>
+        <v>1146217.73256037</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="n">
+        <f aca="false">B23/365</f>
+        <v>3140.32255495993</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A26:F26"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.76"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <f aca="false">0.777647319307911*EXP(2.15756447148498*A2)</f>
+        <v>6.72668395798702</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <f aca="false">0.777647319307911*EXP(2.15756447148498*A3)</f>
+        <v>58.1861159258028</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>311</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <f aca="false">0.777647319307911*EXP(2.15756447148498*A4)</f>
+        <v>503.312495083257</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>3015</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <f aca="false">0.777647319307911*EXP(2.15756447148498*A5)</f>
+        <v>4353.67550619746</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>46440</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <f aca="false">0.777647319307911*EXP(2.15756447148498*A6)</f>
+        <v>37659.4870948481</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1137164</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <f aca="false">0.777647319307911*EXP(2.15756447148498*A7)</f>
+        <v>325756.241187054</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1098583</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <f aca="false">0.777647319307911*EXP(2.15756447148498*A8)</f>
+        <v>2817805.99945651</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <f aca="false">0.777647319307911*EXP(2.15756447148498*A9)</f>
+        <v>24374147.4350259</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <f aca="false">0.777647319307911*EXP(2.15756447148498*A10)</f>
+        <v>210837461.237207</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <f aca="false">0.777647319307911*EXP(2.15756447148498*A11)</f>
+        <v>1823753432.99483</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <f aca="false">0.777647319307911*EXP(2.15756447148498*A12)</f>
+        <v>15775548447.8081</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <f aca="false">0.777647319307911*EXP(2.15756447148498*A13)</f>
+        <v>136459196910.445</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <f aca="false">0.777647319307911*EXP(2.15756447148498*A14)</f>
+        <v>1180378132845.89</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <f aca="false">0.777647319307911*EXP(2.15756447148498*A15)</f>
+        <v>10210323437673</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <f aca="false">0.777647319307911*EXP(2.15756447148498*A16)</f>
+        <v>88319752629223.5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <f aca="false">0.777647319307911*EXP(2.15756447148498*A17)</f>
+        <v>763969795090550</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <f aca="false">C17/1000</f>
+        <v>763969795090.55</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="n">
+        <f aca="false">B20/60</f>
+        <v>12732829918.1758</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="n">
+        <f aca="false">B21/60</f>
+        <v>212213831.969597</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="n">
+        <f aca="false">B22/24</f>
+        <v>8842242.99873322</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="n">
+        <f aca="false">B23/365</f>
+        <v>24225.3232842006</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A26:F26"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>